--- a/python/lin/gg.xlsx
+++ b/python/lin/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.84e+01</t>
+          <t>1.02e+02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.75e+01</t>
+          <t>9.98e+01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>0.232</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.91e+01</t>
+          <t>9.86e+01</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.936</t>
+          <t>1.44</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.01e+02</t>
+          <t>1.88e+02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-0.676</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.13e+02</t>
+          <t>2.05e+02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-6.65</t>
+          <t>-2.48</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.08e+02</t>
+          <t>2.03e+02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-4.04</t>
+          <t>-1.45</t>
         </is>
       </c>
     </row>
@@ -587,12 +587,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.95e-05</t>
+          <t>1.00e-04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.525</t>
+          <t>0.0418</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -602,17 +602,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.779</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>9.99e-05</t>
+          <t>1.01e-04</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.134</t>
+          <t>-1.03</t>
         </is>
       </c>
     </row>
@@ -634,12 +634,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>9.99e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.11e-14</t>
+          <t>0.078</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">

--- a/python/lin/gg.xlsx
+++ b/python/lin/gg.xlsx
@@ -483,42 +483,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.00e+02</t>
+          <t>6.00e+00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.00e+03</t>
+          <t>6.00e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.02e+02</t>
+          <t>5.88e+00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.98e+01</t>
+          <t>5.80e+00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.232</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.86e+01</t>
+          <t>5.83e+00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.75</t>
         </is>
       </c>
     </row>
@@ -530,42 +530,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2.00e+02</t>
+          <t>5.00e+00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.00e+02</t>
+          <t>5.00e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.88e+02</t>
+          <t>5.46e+00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>-9.84</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.05e+02</t>
+          <t>5.67e+00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-2.48</t>
+          <t>-14.5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.03e+02</t>
+          <t>5.13e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>-3.7</t>
         </is>
       </c>
     </row>
@@ -587,12 +587,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>1.01e-04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.0418</t>
+          <t>-0.573</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.967</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>-1.16</t>
         </is>
       </c>
     </row>
@@ -639,27 +639,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.078</t>
+          <t>0.138</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>9.99e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.11e-14</t>
+          <t>0.0636</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>9.98e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.11e-14</t>
+          <t>0.207</t>
         </is>
       </c>
     </row>

--- a/python/lin/gg.xlsx
+++ b/python/lin/gg.xlsx
@@ -493,32 +493,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.88e+00</t>
+          <t>5.78e+00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.80e+00</t>
+          <t>5.91e+00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5.83e+00</t>
+          <t>6.05e+00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>-0.77</t>
         </is>
       </c>
     </row>
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.46e+00</t>
+          <t>5.47e+00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-9.84</t>
+          <t>-9.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.67e+00</t>
+          <t>5.34e+00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-14.5</t>
+          <t>-6.85</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5.13e+00</t>
+          <t>4.84e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-3.7</t>
+          <t>3.11</t>
         </is>
       </c>
     </row>
@@ -577,42 +577,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>2.00e-05</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.00e-04</t>
+          <t>2.00e-05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.01e-04</t>
+          <t>2.00e-05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-0.573</t>
+          <t>-9.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.01e-04</t>
+          <t>2.01e-05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.967</t>
+          <t>-7.17</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.01e-04</t>
+          <t>2.00e-05</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-1.16</t>
+          <t>3.15</t>
         </is>
       </c>
     </row>
@@ -624,42 +624,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>9.50e-01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>1.00e+00</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1.00e+00</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.99e-01</t>
+          <t>9.48e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.138</t>
+          <t>0.213</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.99e-01</t>
+          <t>9.48e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0636</t>
+          <t>0.204</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9.98e-01</t>
+          <t>9.52e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.207</t>
+          <t>-0.192</t>
         </is>
       </c>
     </row>

--- a/python/lin/gg.xlsx
+++ b/python/lin/gg.xlsx
@@ -493,22 +493,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.78e+00</t>
+          <t>5.91e+00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.91e+00</t>
+          <t>5.97e+00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>0.552</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-0.911</t>
         </is>
       </c>
     </row>
@@ -530,42 +530,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5.00e+00</t>
+          <t>2.00e+00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.00e+00</t>
+          <t>2.00e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.47e+00</t>
+          <t>2.30e+00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-9.33</t>
+          <t>-14.8</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.34e+00</t>
+          <t>1.98e+00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-6.85</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.84e+00</t>
+          <t>1.63e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>18.3</t>
         </is>
       </c>
     </row>
@@ -577,42 +577,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.00e-05</t>
+          <t>5.00e-05</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.00e-05</t>
+          <t>5.00e-05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.00e-05</t>
+          <t>5.00e-05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-9.38</t>
+          <t>-14.9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.01e-05</t>
+          <t>5.04e-05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-7.17</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.00e-05</t>
+          <t>5.01e-05</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>18.2</t>
         </is>
       </c>
     </row>
@@ -629,37 +629,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>9.50e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.48e-01</t>
+          <t>9.50e-01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.213</t>
+          <t>0.0279</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.48e-01</t>
+          <t>9.50e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.204</t>
+          <t>-0.00513</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9.52e-01</t>
+          <t>9.50e-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.192</t>
+          <t>-0.0275</t>
         </is>
       </c>
     </row>

--- a/python/lin/gg.xlsx
+++ b/python/lin/gg.xlsx
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>R1 [Ω]</t>
+          <t>τ1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,39 +493,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.91e+00</t>
+          <t>6.12e+00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>-2.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.97e+00</t>
+          <t>5.99e+00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.552</t>
+          <t>0.226</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6.05e+00</t>
+          <t>5.99e+00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-0.911</t>
+          <t>0.137</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>R2 [Ω]</t>
+          <t>τ2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -540,32 +540,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.30e+00</t>
+          <t>1.25e+00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-14.8</t>
+          <t>37.7</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.98e+00</t>
+          <t>2.04e+00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.63e+00</t>
+          <t>2.19e+00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>18.3</t>
+          <t>-9.4</t>
         </is>
       </c>
     </row>
@@ -587,32 +587,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>5.06e-05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06e-05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-3.3</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>5.00e-05</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-14.9</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.04e-05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>5.01e-05</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>18.2</t>
+          <t>-9.46</t>
         </is>
       </c>
     </row>
@@ -634,32 +634,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>9.49e-01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.49e-01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>9.50e-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.0279</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.50e-01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-0.00513</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>9.50e-01</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-0.0275</t>
+          <t>0.0431</t>
         </is>
       </c>
     </row>

--- a/python/lin/gg.xlsx
+++ b/python/lin/gg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,37 +441,32 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Guess</t>
+          <t>Fitted 1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Fitted 1</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>% Error</t>
+          <t>Fitted 2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Fitted 2</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>% Error</t>
+          <t>Fitted 3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Fitted 3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>% Error</t>
+          <t>SD</t>
         </is>
       </c>
     </row>
@@ -488,37 +483,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.00e+00</t>
+          <t>5.77e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.12e+00</t>
+          <t>0.0953</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-2.03</t>
+          <t>5.87e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.99e+00</t>
+          <t>0.0908</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.226</t>
+          <t>5.85e+00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5.99e+00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.137</t>
+          <t>0.0998</t>
         </is>
       </c>
     </row>
@@ -535,84 +525,74 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.00e+00</t>
+          <t>2.66e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.25e+00</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>37.7</t>
+          <t>2.60e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.04e+00</t>
+          <t>0.342</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>2.46e+00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.19e+00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-9.4</t>
+          <t>0.376</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Q [Fs^(1-α)]</t>
+          <t>τ2Q0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5.00e-05</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.00e-05</t>
+          <t>1.33e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.06e-05</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>1.29e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.06e-05</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>1.23e+00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5.00e-05</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-9.46</t>
+          <t>0.188</t>
         </is>
       </c>
     </row>
@@ -629,37 +609,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>9.51e-01</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.000506</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>9.51e-01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.000476</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>9.50e-01</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.49e-01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.0832</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.49e-01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0723</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9.50e-01</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.0431</t>
+          <t>0.000532</t>
         </is>
       </c>
     </row>
